--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>0.02423504766277778</v>
+        <v>0.02825354314833333</v>
       </c>
       <c r="R2">
-        <v>0.218115428965</v>
+        <v>0.254281888335</v>
       </c>
       <c r="S2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="T2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
         <v>0.8614042578477777</v>
@@ -638,10 +638,10 @@
         <v>7.75263832063</v>
       </c>
       <c r="S3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="T3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>8.312622944444445E-05</v>
+        <v>0.002676917764444444</v>
       </c>
       <c r="R4">
-        <v>0.0007481360650000001</v>
+        <v>0.02409225988</v>
       </c>
       <c r="S4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="T4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>0.05032380473833333</v>
+        <v>0.08253526451333335</v>
       </c>
       <c r="R5">
-        <v>0.452914242645</v>
+        <v>0.7428173806200001</v>
       </c>
       <c r="S5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="T5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N6">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q6">
-        <v>0.0004464526138888889</v>
+        <v>0.0006009085233333333</v>
       </c>
       <c r="R6">
-        <v>0.004018073525000001</v>
+        <v>0.00540817671</v>
       </c>
       <c r="S6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="T6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
     </row>
   </sheetData>
